--- a/data/trans_dic/P16B12-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Provincia-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B12-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,04%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,51%</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>67,24; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>82,92; 100</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>80,53; 100,0</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>78,43; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>94,55; 100</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,9</t>
+          <t>84,6; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>96,52; 100</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>96,02; 100</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>89,15; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>97,77; 100</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,34</t>
+          <t>97,66; 100</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,1%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>94,04; 100</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>75,66; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>94,22; 100</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>85,82; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>97,01; 100</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>94,55; 100</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,23%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>94,97; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>96,02; 100</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>76,61; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,82</t>
+          <t>90,72; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>91,73; 100</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>89,36; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>95,59; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>97,26; 100</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 15,69</t>
+          <t>84,31; 100</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>87,39; 100</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>92,68; 100</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>90,95; 100</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>93,43; 100</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>95,56; 100</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>94,55; 100</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>88,17; 100</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>89,47; 100</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>81,26; 100</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>93,43; 100</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,15</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 7,61</t>
+          <t>92,39; 100</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>95,93; 100</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>94,39; 100</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,82%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,92%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,98%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>89,78; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>96,32; 100</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,99</t>
+          <t>97,01; 100</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>90,49; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>88,85; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,16</t>
+          <t>95,84; 100</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,2</t>
+          <t>92,76; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,83</t>
+          <t>95,83; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,76</t>
+          <t>98,24; 100</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,61%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,31%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>96,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>98,39%</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,07</t>
+          <t>84,59; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>95,66; 100</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,62</t>
+          <t>92,7; 100,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>86,52; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>95,56; 100</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>92,28; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>90,74; 99,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,23</t>
+          <t>97,77; 100</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,45</t>
+          <t>94,39; 100,0</t>
         </is>
       </c>
     </row>
@@ -1512,47 +1512,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,99%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,18%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,48%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,33%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,52%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,63%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>99,35%</t>
         </is>
       </c>
     </row>
@@ -1565,47 +1565,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>95,48; 99,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>99,16; 100</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>97,44; 100,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>93,89; 99,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,68</t>
+          <t>97,6; 100,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,81</t>
+          <t>97,64; 100,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,49</t>
+          <t>95,76; 98,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>98,61; 100,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>98,08; 99,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B12-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Provincia-trans_dic.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -690,7 +690,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>88,85; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>90,01; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -720,7 +720,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>94,55; 100</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -982,7 +982,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>98,23%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -997,7 +997,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>99,01%</t>
+          <t>98,36%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1020,7 +1020,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,97; 100</t>
+          <t>91,36; 100</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,72; 100,0</t>
+          <t>85,51; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>95,59; 100,0</t>
+          <t>90,62; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">

--- a/data/trans_dic/P16B12-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16B12-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -695,7 +696,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>67,24; 100,0</t>
+          <t>66,41; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -725,14 +726,14 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>80,53; 100,0</t>
+          <t>82,35; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -795,7 +796,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>78,43; 100,0</t>
+          <t>83,47; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -810,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,6; 100,0</t>
+          <t>86,36; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -825,7 +826,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>89,15; 100,0</t>
+          <t>89,44; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -842,7 +843,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -920,7 +921,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,66; 100,0</t>
+          <t>80,58; 100,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -935,7 +936,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>85,82; 100,0</t>
+          <t>86,56; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1030,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,61; 100,0</t>
+          <t>74,92; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>85,51; 100,0</t>
+          <t>88,27; 100,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1045,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,36; 100,0</t>
+          <t>85,89; 100,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>90,62; 100,0</t>
+          <t>91,7; 100,0</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1172,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1282,7 +1283,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>89,78; 100,0</t>
+          <t>91,7; 100,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1360,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>90,49; 100,0</t>
+          <t>88,88; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>88,85; 100,0</t>
+          <t>87,9; 100,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1375,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>92,76; 100,0</t>
+          <t>92,08; 100,0</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>95,83; 100,0</t>
+          <t>93,95; 100,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1455,7 +1456,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>84,59; 100,0</t>
+          <t>87,0; 100,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1465,12 +1466,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>92,7; 100,0</t>
+          <t>92,23; 100,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>86,52; 100,0</t>
+          <t>88,02; 100,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1480,12 +1481,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>92,28; 100,0</t>
+          <t>90,86; 100,0</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>90,74; 99,03</t>
+          <t>90,48; 100,0</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1495,7 +1496,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>94,39; 100,0</t>
+          <t>94,29; 100,0</t>
         </is>
       </c>
     </row>
@@ -1565,7 +1566,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>95,48; 99,45</t>
+          <t>95,15; 99,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1575,37 +1576,37 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>97,44; 100,0</t>
+          <t>97,13; 100,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>93,89; 99,02</t>
+          <t>94,47; 99,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>97,6; 100,0</t>
+          <t>97,62; 100,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>97,64; 100,0</t>
+          <t>97,63; 100,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>95,76; 98,89</t>
+          <t>95,67; 98,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>98,61; 100,0</t>
+          <t>98,83; 100,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>98,08; 99,83</t>
+          <t>98,05; 99,83</t>
         </is>
       </c>
     </row>
@@ -1634,4 +1635,1619 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para la diabetes fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>11954</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>17343</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>17766</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>10516</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>18450</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10529</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>22470</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>35793</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28295</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10447; 11954</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15410; 17343</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12682; 19095</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8720; 10516</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16607; 18450</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8731; 10529</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20759; 22470</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>33841; 35793</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>24395; 29624</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>25800</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>34903</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>34226</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>37989</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>57594</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>54198</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>63790</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>92497</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>88424</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>22368; 26796</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>32822; 34903</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>32360; 34226</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>33724; 39051</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>55591; 57594</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>52039; 54198</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>58894; 65848</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>90436; 92497</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>86358; 88424</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>15217</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>33437</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13591</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>23668</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>35128</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>20196</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>38886</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>68565</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>33787</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13521; 15217</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>31444; 33437</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12076; 13591</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>20006; 24829</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>33097; 35128</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18179; 20196</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34666; 40047</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>66514; 68565</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>31944; 33787</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>18332</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22420</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>45807</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>16628</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>30737</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>23434</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>34961</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>53156</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>69241</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>16673; 18332</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>20483; 22420</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>43982; 45807</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13105; 17492</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>27915; 31623</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>21496; 23434</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>30769; 35825</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>49558; 54042</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>67347; 69241</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>9684</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>18939</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>13041</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>18317</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>25856</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>20570</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28001</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>44795</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>33611</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>8165; 9684</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>16944; 18939</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>11397; 13041</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>16387; 18317</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>23962; 25856</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>18709; 20570</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>26161; 28001</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>42804; 44795</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>31778; 33611</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>15295</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>18480</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>15429</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9535</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>29538</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>18366</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>24830</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>48018</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>33795</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>13486; 15295</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>16634; 18480</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>13804; 15429</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7748; 9535</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>27597; 29538</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>16319; 18366</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>22939; 24830</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>46065; 48018</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>31898; 33795</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>40733</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>54327</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>70208</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>40138</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>55347</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>54454</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>80871</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>109674</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>124661</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>38104; 41554</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>52329; 54327</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>68108; 70208</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>36472; 41035</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>49642; 56478</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>52191; 54454</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>76045; 82589</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>104103; 110805</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>122469; 124661</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>42332</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>48354</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>67934</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>42295</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>45320</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>70283</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>84628</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>93675</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>138217</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>38451; 44195</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>46254; 48354</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>63540; 68889</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>38255; 43462</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>43306; 45320</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>65045; 71587</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>79310; 87658</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>91588; 93675</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>132452; 140476</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>515</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>179348</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>248204</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>278002</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>199089</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>297969</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>272031</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>378438</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>546173</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>550032</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>174150; 182029</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>246124; 248204</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>272229; 280286</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>192939; 202479</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>292854; 299986</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>266853; 273335</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>370497; 383218</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>541796; 548190</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>542808; 552666</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>